--- a/Tugas 4/Tugas 4.xlsx
+++ b/Tugas 4/Tugas 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSIB\MySQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSIB\MySQL\Tugas 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E14D9-FFF5-4766-8197-CC25CC6DB0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884050F4-135B-438D-8775-8DA58CE7F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BF07D214-C499-48AE-8564-6F05489C5D13}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>TABEL-TABEL</t>
   </si>
   <si>
-    <t>1. tabel kegiatan pelatihan</t>
-  </si>
-  <si>
     <t>2. tabel pendaftaran</t>
   </si>
   <si>
@@ -49,13 +46,169 @@
   </si>
   <si>
     <t>4. tabel presensi peserta pelatihan</t>
+  </si>
+  <si>
+    <t>3 NF</t>
+  </si>
+  <si>
+    <t>Tabel Pelatihan</t>
+  </si>
+  <si>
+    <t>1. tabel pelatihan</t>
+  </si>
+  <si>
+    <t>Id_pelatihan</t>
+  </si>
+  <si>
+    <t>Id_pendaftaran</t>
+  </si>
+  <si>
+    <t>Nama Kegiatan</t>
+  </si>
+  <si>
+    <t>Tgl Mulai</t>
+  </si>
+  <si>
+    <t>Tgl Akhir</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>Pelatihan Fullstack Web Developer</t>
+  </si>
+  <si>
+    <t>Pelatihan Pemrograman PHP</t>
+  </si>
+  <si>
+    <t>Pelatihan Pemrograman JavaScript</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Tabel Pendaftaran</t>
+  </si>
+  <si>
+    <t>Id_kehadiran</t>
+  </si>
+  <si>
+    <t>Nama Peserta</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>No Telepon</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Putri</t>
+  </si>
+  <si>
+    <t>putri@gmail.com</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>Parhan</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>keira@gmail.com</t>
+  </si>
+  <si>
+    <t>parhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>Tabel Narasumber</t>
+  </si>
+  <si>
+    <t>id_narasumber</t>
+  </si>
+  <si>
+    <t>Nama Narasumber</t>
+  </si>
+  <si>
+    <t>Materi pelatihan</t>
+  </si>
+  <si>
+    <t>Kurnia</t>
+  </si>
+  <si>
+    <t>Viska</t>
+  </si>
+  <si>
+    <t>Rini</t>
+  </si>
+  <si>
+    <t>kurnia@gmail.com</t>
+  </si>
+  <si>
+    <t>viska@gmail.com</t>
+  </si>
+  <si>
+    <t>rini@gmail.com</t>
+  </si>
+  <si>
+    <t>Pengenalan Pemrograman PHP</t>
+  </si>
+  <si>
+    <t>Pengenalan Pemrograman JavaScript</t>
+  </si>
+  <si>
+    <t>Pengenalan Fullstack Web Developer</t>
+  </si>
+  <si>
+    <t>Tabel Presensi Peserta</t>
+  </si>
+  <si>
+    <t>tgl presensi</t>
+  </si>
+  <si>
+    <t>Kehadiran</t>
+  </si>
+  <si>
+    <t>Tabel Kehadiran</t>
+  </si>
+  <si>
+    <t>Hadir</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>id_kehadiran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +216,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -160,23 +327,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,16 +779,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF23DE0-3A11-438B-B9BA-16C9B91C28EE}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,39 +805,468 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14">
+        <v>44938</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45076</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45000</v>
+      </c>
+      <c r="F14" s="14">
+        <v>45107</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14">
+        <v>45081</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45108</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="15">
+        <v>81278906670</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="15">
+        <v>81255243745</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="15">
+        <v>81200123456</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="24">
+        <v>85278906654</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
+        <v>2</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="24">
+        <v>85289007623</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
+        <v>3</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="24">
+        <v>85256431276</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="14">
+        <v>44941</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="13">
+        <v>2</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="14">
+        <v>45002</v>
+      </c>
+      <c r="F35" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="13">
+        <v>3</v>
+      </c>
+      <c r="C36" s="25">
+        <v>3</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="14">
+        <v>45083</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="26">
+        <v>1</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="26">
+        <v>2</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="26">
+        <v>3</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B25:F25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>